--- a/Result/Multi Thread_Result 10.xlsx
+++ b/Result/Multi Thread_Result 10.xlsx
@@ -411,7 +411,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I6" sqref="I6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,19 +487,19 @@
         <v>23.21</v>
       </c>
       <c r="I2">
-        <v>0.40100000000000002</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="J2">
-        <v>23.152000000000001</v>
+        <v>23.166</v>
       </c>
       <c r="K2">
         <v>2.3210000000000002</v>
       </c>
       <c r="L2">
-        <v>98.31114049</v>
+        <v>98.251773589999999</v>
       </c>
       <c r="M2">
-        <v>3.2802439000000003E-2</v>
+        <v>3.7469988000000003E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -528,19 +528,19 @@
         <v>25.3</v>
       </c>
       <c r="I3">
-        <v>1.2430000000000001</v>
+        <v>1.7150000000000001</v>
       </c>
       <c r="J3">
-        <v>24.347999999999999</v>
+        <v>24.82</v>
       </c>
       <c r="K3">
         <v>2.5299999999999998</v>
       </c>
       <c r="L3">
-        <v>94.927714800000004</v>
+        <v>93.136216779999998</v>
       </c>
       <c r="M3">
-        <v>1.4696938E-2</v>
+        <v>0.29444863700000001</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -569,19 +569,19 @@
         <v>21.47</v>
       </c>
       <c r="I4">
-        <v>0.376</v>
+        <v>1.4950000000000001</v>
       </c>
       <c r="J4">
-        <v>10.673</v>
+        <v>11.792</v>
       </c>
       <c r="K4">
         <v>2.1469999999999998</v>
       </c>
       <c r="L4">
-        <v>96.642415900000003</v>
+        <v>85.874275539999999</v>
       </c>
       <c r="M4">
-        <v>5.9818961039999996</v>
+        <v>6.1721273480000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -610,19 +610,19 @@
         <v>23.44</v>
       </c>
       <c r="I5">
-        <v>0.92900000000000005</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="J5">
-        <v>23.318000000000001</v>
+        <v>23.332999999999998</v>
       </c>
       <c r="K5">
         <v>2.3439999999999999</v>
       </c>
       <c r="L5">
-        <v>96.058900320000006</v>
+        <v>95.997133340000005</v>
       </c>
       <c r="M5">
-        <v>7.3184698000000006E-2</v>
+        <v>7.1979163999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -651,19 +651,19 @@
         <v>21.85</v>
       </c>
       <c r="I6">
-        <v>0.55000000000000004</v>
+        <v>1.405</v>
       </c>
       <c r="J6">
-        <v>19.850999999999999</v>
+        <v>20.706</v>
       </c>
       <c r="K6">
         <v>2.1850000000000001</v>
       </c>
       <c r="L6">
-        <v>97.229358719999993</v>
+        <v>93.377923510000002</v>
       </c>
       <c r="M6">
-        <v>2.4306313990000001</v>
+        <v>2.7149003660000002</v>
       </c>
     </row>
   </sheetData>

--- a/Result/Multi Thread_Result 10.xlsx
+++ b/Result/Multi Thread_Result 10.xlsx
@@ -411,7 +411,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:M6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
         <v>23.166</v>
       </c>
       <c r="K2">
-        <v>2.3210000000000002</v>
+        <v>0.43084877199999999</v>
       </c>
       <c r="L2">
         <v>98.251773589999999</v>
@@ -534,7 +534,7 @@
         <v>24.82</v>
       </c>
       <c r="K3">
-        <v>2.5299999999999998</v>
+        <v>0.39525691699999999</v>
       </c>
       <c r="L3">
         <v>93.136216779999998</v>
@@ -575,7 +575,7 @@
         <v>11.792</v>
       </c>
       <c r="K4">
-        <v>2.1469999999999998</v>
+        <v>0.465766185</v>
       </c>
       <c r="L4">
         <v>85.874275539999999</v>
@@ -616,7 +616,7 @@
         <v>23.332999999999998</v>
       </c>
       <c r="K5">
-        <v>2.3439999999999999</v>
+        <v>0.42662116</v>
       </c>
       <c r="L5">
         <v>95.997133340000005</v>
@@ -657,7 +657,7 @@
         <v>20.706</v>
       </c>
       <c r="K6">
-        <v>2.1850000000000001</v>
+        <v>0.45766590400000001</v>
       </c>
       <c r="L6">
         <v>93.377923510000002</v>
